--- a/etabs_extraction/test_with_table.xlsx
+++ b/etabs_extraction/test_with_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://killa-my.sharepoint.com/personal/adnan_a_killadesign_com/Documents/Documents/GitHub/Killa-Design-Structures-code/etabs_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_81C5CC9B2016DE4718993F8F641415B5C0A89CBB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F562DD3C-7D51-4569-A0EF-083BE1159AE1}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_81C5CC9B2016DE4718993F8F641415B5C0A89CBB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5676F484-3E6F-42A2-B572-E68334348141}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Story Definitions" sheetId="1" r:id="rId1"/>
@@ -382,9 +382,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7620000" cy="6343650"/>
     <xdr:pic>
@@ -405,6 +405,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="161925"/>
+          <a:ext cx="7620000" cy="6343650"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -664,6 +668,10 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1801,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D37:W86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3720,7 +3728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D37:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6660,7 +6668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D37:H86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
